--- a/SeleFramework/ExcelFile/Application_data.xlsx
+++ b/SeleFramework/ExcelFile/Application_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CEDA6829-1485-49F3-9461-53D54EC3E81D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{09339082-DF02-4D2B-9B24-2A51702D0650}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="17475" windowHeight="6435" xr2:uid="{C92163F2-EF56-49A4-9AFD-65F8D9A0D30C}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="12420" windowHeight="3645" xr2:uid="{C92163F2-EF56-49A4-9AFD-65F8D9A0D30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>admin1</t>
   </si>
 </sst>
 </file>
@@ -381,14 +378,14 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
